--- a/doc/task10/scrum_red.xlsx
+++ b/doc/task10/scrum_red.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -51,36 +51,9 @@
     <t>waiting</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>100h</t>
-  </si>
-  <si>
-    <t>200h</t>
-  </si>
-  <si>
-    <t>400h</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>450h</t>
-  </si>
-  <si>
     <t>40h</t>
   </si>
   <si>
-    <t>180h</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -96,42 +69,9 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>UI, Controller</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Admit new patient</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
-    <t>a new patient makes contact on reference from Dr. Boehm. After creating a new patient record, the medical history...</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -141,15 +81,6 @@
     <t>0h</t>
   </si>
   <si>
-    <t>50h</t>
-  </si>
-  <si>
-    <t>350h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -202,6 +133,83 @@
   </si>
   <si>
     <t>Arilar</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Hager</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>UI for Login</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Controller for Login</t>
+  </si>
+  <si>
+    <t>Massah</t>
+  </si>
+  <si>
+    <t>Ludovic</t>
+  </si>
+  <si>
+    <t>GUI needs to be designed (on paper)</t>
+  </si>
+  <si>
+    <t>test of funcitonality</t>
+  </si>
+  <si>
+    <t>UI, Controller, Model</t>
+  </si>
+  <si>
+    <t>Home-view</t>
+  </si>
+  <si>
+    <t>UI for Home-view</t>
+  </si>
+  <si>
+    <t>Admit new patient information</t>
+  </si>
+  <si>
+    <t>New patient information have to be fed to the database</t>
+  </si>
+  <si>
+    <t>Admit new institutions</t>
+  </si>
+  <si>
+    <t>New institutions have to be added to
+the database</t>
+  </si>
+  <si>
+    <t>New treatments have to be added to
+the database</t>
+  </si>
+  <si>
+    <t>Admit new treatments</t>
+  </si>
+  <si>
+    <t>Create statistics</t>
+  </si>
+  <si>
+    <t>From the information in the database, a statistic can be created</t>
+  </si>
+  <si>
+    <t>60h</t>
   </si>
 </sst>
 </file>
@@ -257,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -275,6 +283,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -581,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -596,55 +607,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -657,15 +668,15 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="10.109375" customWidth="1"/>
@@ -677,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -686,102 +697,120 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +824,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +833,7 @@
     <col min="2" max="2" width="6.21875" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
@@ -819,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -828,60 +857,60 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -895,31 +924,37 @@
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>8</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -929,94 +964,111 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
       <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>8</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1028,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,16 +1093,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,28 +1110,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>42262</v>
+        <v>42706</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>42263</v>
-      </c>
-      <c r="C3">
-        <v>190</v>
-      </c>
-      <c r="D3">
-        <v>180</v>
-      </c>
+      <c r="B3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task10/scrum_red.xlsx
+++ b/doc/task10/scrum_red.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoni\workspace\ch.bfh.btx8081.w2016.red\doc\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\workspace\neon\ch.bfh.btx8081.w2016.red\doc\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9373" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -203,19 +203,33 @@
     <t>Admit new treatments</t>
   </si>
   <si>
-    <t>Create statistics</t>
-  </si>
-  <si>
-    <t>From the information in the database, a statistic can be created</t>
-  </si>
-  <si>
-    <t>60h</t>
+    <t>Create statistics according to 
+new / existing patients</t>
+  </si>
+  <si>
+    <t>Create statistics according to
+new / existing treatments</t>
+  </si>
+  <si>
+    <t>Create statistics according to
+new / existing institutions</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Statistics to get the information of the 
+new / existing patients</t>
+  </si>
+  <si>
+    <t>Statistics to get the information of the 
+new / existing institutions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -379,6 +393,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -414,6 +445,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,13 +644,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.3515625" customWidth="1"/>
+    <col min="2" max="2" width="18.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -610,7 +658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -618,7 +666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -626,7 +674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -634,7 +682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -642,7 +690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -650,7 +698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -665,25 +713,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.76171875" customWidth="1"/>
+    <col min="2" max="2" width="26.3515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.234375" customWidth="1"/>
+    <col min="4" max="4" width="7.52734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.64453125" customWidth="1"/>
+    <col min="6" max="6" width="13.1171875" customWidth="1"/>
+    <col min="7" max="7" width="10.1171875" customWidth="1"/>
+    <col min="8" max="8" width="14.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -709,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -735,7 +783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -761,7 +809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -787,21 +835,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
@@ -810,6 +858,58 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -827,23 +927,23 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.76171875" customWidth="1"/>
+    <col min="2" max="2" width="6.234375" customWidth="1"/>
+    <col min="3" max="3" width="12.64453125" customWidth="1"/>
+    <col min="4" max="4" width="19.41015625" customWidth="1"/>
+    <col min="5" max="5" width="18.234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3515625" customWidth="1"/>
+    <col min="7" max="7" width="9.76171875" customWidth="1"/>
+    <col min="8" max="8" width="8.3515625" customWidth="1"/>
+    <col min="9" max="9" width="7.87890625" customWidth="1"/>
+    <col min="10" max="10" width="9.1171875" customWidth="1"/>
+    <col min="11" max="11" width="7.234375" customWidth="1"/>
+    <col min="12" max="12" width="15.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -881,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -919,7 +1019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -957,7 +1057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -995,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1033,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1080,18 +1180,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.64453125" customWidth="1"/>
+    <col min="4" max="4" width="14.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +1205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1119,7 +1219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B3" s="6"/>
     </row>
   </sheetData>

--- a/doc/task10/scrum_red.xlsx
+++ b/doc/task10/scrum_red.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\workspace\neon\ch.bfh.btx8081.w2016.red\doc\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoni\workspace\ch.bfh.btx8081.w2016.red\doc\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9373" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -224,6 +224,50 @@
   <si>
     <t>Statistics to get the information of the 
 new / existing institutions</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Vaadin has to work on 
+all Laptops (Eclipse)</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Datenbank</t>
+  </si>
+  <si>
+    <t>Anbindung der Daten-
+bank an das Projekt</t>
+  </si>
+  <si>
+    <t>Eclipse, Database</t>
+  </si>
+  <si>
+    <t>UI for Hospital</t>
+  </si>
+  <si>
+    <t>UI for Map</t>
+  </si>
+  <si>
+    <t>UI for Addictions</t>
+  </si>
+  <si>
+    <t>UI for Search</t>
+  </si>
+  <si>
+    <t>UI for statistics</t>
+  </si>
+  <si>
+    <t>working</t>
   </si>
 </sst>
 </file>
@@ -641,16 +685,17 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.3515625" customWidth="1"/>
-    <col min="2" max="2" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -658,7 +703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -666,7 +711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -674,7 +719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -682,7 +727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -690,7 +735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -698,7 +743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -715,23 +760,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.76171875" customWidth="1"/>
-    <col min="2" max="2" width="26.3515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.234375" customWidth="1"/>
-    <col min="4" max="4" width="7.52734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.64453125" customWidth="1"/>
-    <col min="6" max="6" width="13.1171875" customWidth="1"/>
-    <col min="7" max="7" width="10.1171875" customWidth="1"/>
-    <col min="8" max="8" width="14.41015625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -757,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -783,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -809,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -835,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -861,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -887,7 +932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -921,29 +966,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" customWidth="1"/>
-    <col min="2" max="2" width="6.234375" customWidth="1"/>
-    <col min="3" max="3" width="12.64453125" customWidth="1"/>
-    <col min="4" max="4" width="19.41015625" customWidth="1"/>
-    <col min="5" max="5" width="18.234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3515625" customWidth="1"/>
-    <col min="7" max="7" width="9.76171875" customWidth="1"/>
-    <col min="8" max="8" width="8.3515625" customWidth="1"/>
-    <col min="9" max="9" width="7.87890625" customWidth="1"/>
-    <col min="10" max="10" width="9.1171875" customWidth="1"/>
-    <col min="11" max="11" width="7.234375" customWidth="1"/>
-    <col min="12" max="12" width="15.234375" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -981,12 +1026,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1010,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1018,8 +1063,14 @@
       <c r="L2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1048,16 +1099,23 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+        <v>68</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>SUM(K3,K4,K5,K6)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1086,16 +1144,23 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+        <v>68</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f>SUM(K2,K7,K8,K9:K13)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1121,19 +1186,22 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+        <v>68</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1159,16 +1227,267 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.7</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1178,20 +1497,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.64453125" customWidth="1"/>
-    <col min="4" max="4" width="14.3515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1205,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1213,14 +1532,41 @@
         <v>42706</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <f>36-'Sprint Backlog'!O3</f>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B3" s="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>42713</v>
+      </c>
+      <c r="C3">
+        <f>103-'Sprint Backlog'!O4</f>
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>42727</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task10/scrum_red.xlsx
+++ b/doc/task10/scrum_red.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoni\workspace\ch.bfh.btx8081.w2016.red\doc\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massahhamidi/Documents/workspace/ch.bfh.btx8081.w2016.red/doc/task10/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,15 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -273,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,7 +354,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,7 +370,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -407,9 +415,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -437,31 +445,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -489,23 +480,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -688,14 +662,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,7 +677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -711,7 +685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -719,7 +693,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -727,7 +701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -735,7 +709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -743,7 +717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -764,19 +738,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -828,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -854,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -880,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -906,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -932,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -969,26 +943,26 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1070,7 +1044,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1115,7 +1089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1160,7 +1134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1201,7 +1175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1239,7 +1213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.1</v>
       </c>
@@ -1277,7 +1251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.2000000000000002</v>
       </c>
@@ -1312,10 +1286,10 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2.2999999999999998</v>
       </c>
@@ -1350,7 +1324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2.4</v>
       </c>
@@ -1385,7 +1359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -1420,7 +1394,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.6</v>
       </c>
@@ -1455,7 +1429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.7</v>
       </c>
@@ -1503,14 +1477,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1524,7 +1498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1539,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1554,7 +1528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>

--- a/doc/task10/scrum_red.xlsx
+++ b/doc/task10/scrum_red.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -236,28 +236,15 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Datenbank</t>
-  </si>
-  <si>
-    <t>Anbindung der Daten-
-bank an das Projekt</t>
-  </si>
-  <si>
     <t>Eclipse, Database</t>
   </si>
   <si>
     <t>UI for Hospital</t>
   </si>
   <si>
-    <t>UI for Map</t>
-  </si>
-  <si>
     <t>UI for Addictions</t>
   </si>
   <si>
-    <t>UI for Search</t>
-  </si>
-  <si>
     <t>UI for statistics</t>
   </si>
   <si>
@@ -273,7 +260,54 @@
     <t xml:space="preserve">All menues have to be created </t>
   </si>
   <si>
-    <t>45h</t>
+    <t>UI for Patient</t>
+  </si>
+  <si>
+    <t>UI for Treatment</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>calculate data button
+implemented</t>
+  </si>
+  <si>
+    <t>Eclipse, Vaadin</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Connection to database established</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>50h</t>
+  </si>
+  <si>
+    <t>60h</t>
+  </si>
+  <si>
+    <t>Statistics to get the information of the 
+new / existing treatments</t>
+  </si>
+  <si>
+    <t>Vaadin has to work</t>
+  </si>
+  <si>
+    <t>Vaadin has to work on all groupmembers machines</t>
+  </si>
+  <si>
+    <t>Database has to be connected and persistence  implemented</t>
   </si>
 </sst>
 </file>
@@ -329,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -350,6 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -764,10 +799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,13 +856,13 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -847,13 +882,13 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
@@ -873,13 +908,13 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
@@ -897,15 +932,15 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
@@ -923,15 +958,15 @@
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
@@ -946,18 +981,18 @@
         <v>59</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
@@ -969,25 +1004,77 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
+      <c r="E8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -998,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,10 +1177,10 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>
@@ -1188,8 +1275,8 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <f>SUM(K2,K7,K8,K9:K13)</f>
-        <v>35</v>
+        <f>SUM(K2,K7,K8,K9:K11)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1232,6 +1319,10 @@
       <c r="N5">
         <v>3</v>
       </c>
+      <c r="O5">
+        <f>SUM(K12:K15)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1303,7 +1394,7 @@
         <v>30</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
         <v>66</v>
@@ -1317,13 +1408,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
         <v>68</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -1341,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -1358,10 +1449,10 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
@@ -1378,8 +1469,11 @@
       <c r="J9">
         <v>6</v>
       </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1393,10 +1487,10 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -1413,8 +1507,11 @@
       <c r="J10">
         <v>6</v>
       </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1428,10 +1525,10 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -1448,8 +1545,11 @@
       <c r="J11">
         <v>6</v>
       </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1457,16 +1557,16 @@
         <v>2.6</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
@@ -1483,8 +1583,11 @@
       <c r="J12">
         <v>6</v>
       </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1492,16 +1595,16 @@
         <v>2.7</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1518,8 +1621,87 @@
       <c r="J13">
         <v>6</v>
       </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3.2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1762,7 @@
       </c>
       <c r="C3">
         <f>103-'Sprint Backlog'!O4</f>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>70</v>
